--- a/out.xlsx
+++ b/out.xlsx
@@ -538,28 +538,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8473262496475997</v>
+        <v>0.8507269421161566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8647787271291622</v>
+        <v>0.868067951632928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8266840249032691</v>
+        <v>0.8311543202162925</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8067967519466147</v>
+        <v>0.8089069000043094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9449100045655444</v>
+        <v>0.9460702205553352</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9451073325074203</v>
+        <v>0.9461938932972878</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3227399833451009</v>
+        <v>0.3248344533886366</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1970800433976249</v>
+        <v>0.1982323053606478</v>
       </c>
     </row>
     <row r="4">
@@ -569,28 +569,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.795824597146776</v>
+        <v>2.043110025229574</v>
       </c>
       <c r="D4" t="n">
-        <v>2.86593608379364</v>
+        <v>2.029346597495199</v>
       </c>
       <c r="F4" t="n">
-        <v>-12.1024077574412</v>
+        <v>-28.62692057398972</v>
       </c>
       <c r="G4" t="n">
-        <v>-17.83355495532354</v>
+        <v>-28.36801325587448</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.418907572428385</v>
+        <v>-5.049805714739656</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.301826883951823</v>
+        <v>-4.942566945208406</v>
       </c>
       <c r="L4" t="n">
-        <v>1.309691564457284</v>
+        <v>-0.886563510954881</v>
       </c>
       <c r="M4" t="n">
-        <v>1.298862132769492</v>
+        <v>-0.5528716159467938</v>
       </c>
     </row>
     <row r="5">
@@ -600,28 +600,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.767616353036172</v>
+        <v>7.696791332362074</v>
       </c>
       <c r="D5" t="n">
-        <v>10.80036209452423</v>
+        <v>7.644941833323162</v>
       </c>
       <c r="F5" t="n">
-        <v>-18.05543520722253</v>
+        <v>-42.75187575480831</v>
       </c>
       <c r="G5" t="n">
-        <v>-26.6056641342553</v>
+        <v>-42.36521965369312</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.539139125928879</v>
+        <v>-0.5024187993211855</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5274905087113467</v>
+        <v>-0.4917493247171809</v>
       </c>
       <c r="L5" t="n">
-        <v>73.99387369815165</v>
+        <v>-50.05981390445117</v>
       </c>
       <c r="M5" t="n">
-        <v>73.38204139940632</v>
+        <v>-31.21789907362679</v>
       </c>
     </row>
     <row r="6">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>27.1</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>1006.8</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>999999.0</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I204" t="n">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>1003.6</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I210" t="n">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>1003.9</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I225" t="n">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I246" t="n">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>1007.1</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>999999.0</t>
         </is>
       </c>
     </row>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="F252" t="n">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>1006.5</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>999999.0</t>
         </is>
       </c>
     </row>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I255" t="n">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>1006.3</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="L255" t="n">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>999999.0</t>
         </is>
       </c>
     </row>
@@ -15070,7 +15070,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>999999.0</t>
         </is>
       </c>
     </row>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -17813,7 +17813,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="I324" t="n">
@@ -17835,7 +17835,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>1005.0</t>
+          <t>999999.0</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -17846,7 +17846,7 @@
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>999999.0</t>
         </is>
       </c>
     </row>
